--- a/v2/test/UnitTest.xlsx
+++ b/v2/test/UnitTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,34 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card\player_slat_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret\nnext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret\rnext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,10 +792,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,40 +804,60 @@
     <col min="2" max="982" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.1415899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.89</v>
       </c>

--- a/v2/test/UnitTest.xlsx
+++ b/v2/test/UnitTest.xlsx
@@ -15,12 +15,12 @@
     <sheet name="UnitTest" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,6 +117,22 @@
   </si>
   <si>
     <t>ret\rnext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPByLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter:"|"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1|0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,35 +808,47 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="982" width="8.5546875"/>
+    <col min="2" max="2" width="8.5546875"/>
+    <col min="4" max="982" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -828,15 +856,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.1415899999999999</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4.5</v>
       </c>
@@ -844,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.5999999999999996</v>
       </c>
@@ -852,12 +883,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.89</v>
       </c>
